--- a/Frontend/Triel_3_rows.xlsx
+++ b/Frontend/Triel_3_rows.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Block</t>
+    <t xml:space="preserve">Mark</t>
   </si>
   <si>
     <t xml:space="preserve">A(W1)</t>
@@ -82,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,11 +112,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,21 +176,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -376,7 +383,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,16 +430,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="4" t="n">
         <v>598.8</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="4" t="n">
         <v>566.3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>16.25</v>
       </c>
       <c r="E2" s="3" t="n">
@@ -464,16 +471,16 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="4" t="n">
         <v>598.8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="4" t="n">
         <v>581</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="4" t="n">
         <v>8.9</v>
       </c>
       <c r="E3" s="3" t="n">
@@ -505,16 +512,16 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="4" t="n">
         <v>598.8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="4" t="n">
         <v>581</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="4" t="n">
         <v>8.7</v>
       </c>
       <c r="E4" s="3" t="n">
